--- a/document/画面设计 - 消费者.xlsx
+++ b/document/画面设计 - 消费者.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
@@ -7708,6 +7708,66 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>507627</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5292539" y="9603442"/>
+          <a:ext cx="1240491" cy="280146"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前位置为摊位</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -28115,7 +28175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -28606,8 +28666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/document/画面设计 - 消费者.xlsx
+++ b/document/画面设计 - 消费者.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
@@ -23043,34 +23043,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line Callout 1 3"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2043952" y="5573247"/>
-          <a:ext cx="1024219" cy="361949"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 275000"/>
-            <a:gd name="adj4" fmla="val -77894"/>
-          </a:avLst>
+          <a:off x="5632076" y="936812"/>
+          <a:ext cx="842683" cy="281827"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
         </a:prstGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
@@ -23098,7 +23093,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>我的位置</a:t>
+            <a:t>筛选</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23109,25 +23104,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5632076" y="936812"/>
-          <a:ext cx="842683" cy="281827"/>
+          <a:off x="5699311" y="302559"/>
+          <a:ext cx="831478" cy="249891"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23158,7 +23153,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>筛选</a:t>
+            <a:t>列表查看</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23168,26 +23163,152 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1100417" y="901513"/>
+          <a:ext cx="4013948" cy="283508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>搜索附近： 摊位名， 摊主名，摊位关键字</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="741829" y="7157198"/>
+          <a:ext cx="6091518" cy="746311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5699311" y="302559"/>
-          <a:ext cx="831478" cy="249891"/>
+          <a:off x="898712" y="7315760"/>
+          <a:ext cx="1181100" cy="429185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23218,7 +23339,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>列表查看</a:t>
+            <a:t>创建摊位</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23228,152 +23349,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1100417" y="901513"/>
-          <a:ext cx="4013948" cy="283508"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>搜索附近： 摊位名， 摊主名，摊位关键字</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="741829" y="7157198"/>
-          <a:ext cx="6091518" cy="746311"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="898712" y="7315760"/>
-          <a:ext cx="1181100" cy="429185"/>
+          <a:off x="2427195" y="7315760"/>
+          <a:ext cx="1181099" cy="429185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23404,7 +23399,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>创建摊位</a:t>
+            <a:t>我创建的摊位</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23414,25 +23409,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>369795</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2427195" y="7315760"/>
+          <a:off x="3955677" y="7315760"/>
           <a:ext cx="1181099" cy="429185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -23463,8 +23458,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>我创建的摊位</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我收藏的摊位</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23474,26 +23474,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3955677" y="7315760"/>
-          <a:ext cx="1181099" cy="429185"/>
+          <a:off x="5405718" y="7315760"/>
+          <a:ext cx="1181100" cy="429185"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23523,13 +23523,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>我收藏的摊位</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23539,26 +23534,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5405718" y="7315760"/>
-          <a:ext cx="1181100" cy="429185"/>
+          <a:off x="865094" y="302558"/>
+          <a:ext cx="831477" cy="248210"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23589,7 +23584,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息</a:t>
+            <a:t>个人设置</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23600,25 +23595,629 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098176" y="1277470"/>
+          <a:ext cx="5412442" cy="5109883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1246095" y="1433232"/>
+          <a:ext cx="4778188" cy="509308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>周边距离</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>672356</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2021542" y="1502148"/>
+          <a:ext cx="708214" cy="281828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>200 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>米</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313767</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056967" y="1546971"/>
+          <a:ext cx="708213" cy="283509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>500 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>米</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>649943</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4056530" y="1535766"/>
+          <a:ext cx="708213" cy="283509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>米</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5125570" y="1546971"/>
+          <a:ext cx="708213" cy="283509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>米</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322295" y="2868706"/>
+          <a:ext cx="4762500" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示客户创建摊位                              是                               否</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>672354</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355913" y="3496235"/>
+          <a:ext cx="4762500" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>仅显示收藏摊位                                是                               否</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400734" y="4190999"/>
+          <a:ext cx="4751295" cy="549089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摊位显示方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>                            摊位名称                 摊位类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="865094" y="302558"/>
-          <a:ext cx="831477" cy="248210"/>
+          <a:off x="5524500" y="5950323"/>
+          <a:ext cx="840441" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23649,7 +24248,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>个人设置</a:t>
+            <a:t>确定</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -23660,25 +24259,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1098176" y="1277470"/>
-          <a:ext cx="5412442" cy="3204883"/>
+          <a:off x="1277472" y="2129118"/>
+          <a:ext cx="4762500" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23709,611 +24308,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1246095" y="1433232"/>
-          <a:ext cx="4778188" cy="509308"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>周边距离</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>672356</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2021542" y="1502148"/>
-          <a:ext cx="708214" cy="281828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>200 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>米</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313767</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>336180</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3056967" y="1546971"/>
-          <a:ext cx="708213" cy="283509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>500 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>米</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>649943</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4056530" y="1535766"/>
-          <a:ext cx="708213" cy="283509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1000 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>米</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5125570" y="1546971"/>
-          <a:ext cx="708213" cy="283509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2000 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>米</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1201271" y="2101103"/>
-          <a:ext cx="4778188" cy="509307"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>显示客户创建摊位                              是                               否</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1232648" y="2711823"/>
-          <a:ext cx="4762500" cy="504265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>仅显示收藏摊位                                是                               否</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>593910</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1277469" y="3406587"/>
-          <a:ext cx="4751295" cy="549089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>摊位显示方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>                            摊位名称                 摊位类型</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5535706" y="4067735"/>
-          <a:ext cx="840441" cy="280147"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="739CC3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="200000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>确定</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -28666,7 +28666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
@@ -35731,8 +35731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/document/画面设计 - 消费者.xlsx
+++ b/document/画面设计 - 消费者.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="6" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
@@ -24129,75 +24129,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33616</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400734" y="4190999"/>
-          <a:ext cx="4751295" cy="549089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>摊位显示方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>                            摊位名称                 摊位类型</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -24313,7 +24244,88 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>显示客户创建摊位                              是                               否</a:t>
+            <a:t>过滤摊位类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉框</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322295" y="4291852"/>
+          <a:ext cx="4762500" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自动显示当前地图附近摊位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是                                 否</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -35731,8 +35743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
